--- a/result/atest_060_zernikemomentcalctime_CPU_GPU_NOC_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_CPU_GPU_NOC_25P_5K.xlsx
@@ -493,28 +493,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.464432998951888</v>
+        <v>2.156913377686387</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1602442293687446</v>
+        <v>-0.1847839014687198</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6537950038909912</v>
+        <v>0.6011264324188232</v>
       </c>
       <c r="G2" t="n">
-        <v>4.155779600143433</v>
+        <v>3.211828231811523</v>
       </c>
       <c r="H2" t="n">
-        <v>10.33186292648315</v>
+        <v>7.491635322570801</v>
       </c>
       <c r="I2" t="n">
-        <v>22.38924241065979</v>
+        <v>13.56940841674805</v>
       </c>
       <c r="J2" t="n">
-        <v>33.45565605163574</v>
+        <v>18.52843022346497</v>
       </c>
       <c r="K2" t="n">
-        <v>14.19726719856262</v>
+        <v>8.680485725402832</v>
       </c>
     </row>
     <row r="3">
@@ -532,28 +532,28 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>2.482593610564529</v>
+        <v>2.126926221628816</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2322006547396734</v>
+        <v>0.2873901070489249</v>
       </c>
       <c r="F3" t="n">
-        <v>1.702046155929565</v>
+        <v>1.689871072769165</v>
       </c>
       <c r="G3" t="n">
-        <v>9.793355703353882</v>
+        <v>10.24289655685425</v>
       </c>
       <c r="H3" t="n">
-        <v>24.53954815864563</v>
+        <v>22.11301279067993</v>
       </c>
       <c r="I3" t="n">
-        <v>56.28186249732971</v>
+        <v>36.33240461349487</v>
       </c>
       <c r="J3" t="n">
-        <v>91.33294367790222</v>
+        <v>51.99927067756653</v>
       </c>
       <c r="K3" t="n">
-        <v>36.7299512386322</v>
+        <v>24.47549114227295</v>
       </c>
     </row>
     <row r="4">
@@ -571,28 +571,28 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>2.616378954115103</v>
+        <v>2.279627053071717</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5181129761797927</v>
+        <v>0.5157377877359423</v>
       </c>
       <c r="F4" t="n">
-        <v>3.332716464996338</v>
+        <v>2.812599420547485</v>
       </c>
       <c r="G4" t="n">
-        <v>19.80087947845459</v>
+        <v>19.85046005249023</v>
       </c>
       <c r="H4" t="n">
-        <v>54.92239332199097</v>
+        <v>44.15005970001221</v>
       </c>
       <c r="I4" t="n">
-        <v>143.7978467941284</v>
+        <v>75.91563296318054</v>
       </c>
       <c r="J4" t="n">
-        <v>205.828830242157</v>
+        <v>111.2514169216156</v>
       </c>
       <c r="K4" t="n">
-        <v>85.53653326034546</v>
+        <v>50.79603381156922</v>
       </c>
     </row>
     <row r="5">
@@ -610,28 +610,28 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>2.583971746744002</v>
+        <v>2.340483917379549</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7977805502842921</v>
+        <v>0.7321020252733181</v>
       </c>
       <c r="F5" t="n">
-        <v>6.507410526275635</v>
+        <v>4.922509908676147</v>
       </c>
       <c r="G5" t="n">
-        <v>38.61713361740112</v>
+        <v>30.63060545921326</v>
       </c>
       <c r="H5" t="n">
-        <v>82.79533886909485</v>
+        <v>77.89129734039307</v>
       </c>
       <c r="I5" t="n">
-        <v>283.7032306194305</v>
+        <v>134.3144249916077</v>
       </c>
       <c r="J5" t="n">
-        <v>389.3946115970612</v>
+        <v>213.2291617393494</v>
       </c>
       <c r="K5" t="n">
-        <v>160.2035450458526</v>
+        <v>92.1975998878479</v>
       </c>
     </row>
     <row r="6">
@@ -649,28 +649,28 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.061152123682815</v>
+        <v>0.8697856167014354</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.6634639434412901</v>
+        <v>-0.7149511206434914</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2500095367431641</v>
+        <v>0.266096830368042</v>
       </c>
       <c r="G6" t="n">
-        <v>0.363682746887207</v>
+        <v>0.2147181034088135</v>
       </c>
       <c r="H6" t="n">
-        <v>0.659752368927002</v>
+        <v>0.4300105571746826</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9489326477050781</v>
+        <v>0.6828033924102783</v>
       </c>
       <c r="J6" t="n">
-        <v>1.360543012619019</v>
+        <v>1.020946979522705</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7165840625762939</v>
+        <v>0.5229151725769043</v>
       </c>
     </row>
     <row r="7">
@@ -688,28 +688,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.259990944549819</v>
+        <v>1.509884616862839</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.517155902042105</v>
+        <v>-0.7372764461995537</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3447153568267822</v>
+        <v>0.2033085823059082</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6110591888427734</v>
+        <v>0.4477417469024658</v>
       </c>
       <c r="H7" t="n">
-        <v>1.11014723777771</v>
+        <v>0.9023945331573486</v>
       </c>
       <c r="I7" t="n">
-        <v>1.771141052246094</v>
+        <v>1.511663198471069</v>
       </c>
       <c r="J7" t="n">
-        <v>2.610913038253784</v>
+        <v>2.285108089447021</v>
       </c>
       <c r="K7" t="n">
-        <v>1.289595174789429</v>
+        <v>1.070043230056763</v>
       </c>
     </row>
     <row r="8">
@@ -727,28 +727,28 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>1.288051125817197</v>
+        <v>1.621879754746254</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2764593129692276</v>
+        <v>-0.5188536663906911</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5974557399749756</v>
+        <v>0.3296384811401367</v>
       </c>
       <c r="G8" t="n">
-        <v>1.095239639282227</v>
+        <v>0.823563814163208</v>
       </c>
       <c r="H8" t="n">
-        <v>1.986759424209595</v>
+        <v>1.707951784133911</v>
       </c>
       <c r="I8" t="n">
-        <v>3.196206569671631</v>
+        <v>2.907293081283569</v>
       </c>
       <c r="J8" t="n">
-        <v>4.755543231964111</v>
+        <v>4.448504686355591</v>
       </c>
       <c r="K8" t="n">
-        <v>2.326240921020508</v>
+        <v>2.043390369415283</v>
       </c>
     </row>
     <row r="9">
@@ -766,28 +766,28 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>1.337796875035767</v>
+        <v>1.670531440856786</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06716820004821941</v>
+        <v>-0.2901705309576364</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9586541652679443</v>
+        <v>0.552170991897583</v>
       </c>
       <c r="G9" t="n">
-        <v>1.860337972640991</v>
+        <v>1.467227220535278</v>
       </c>
       <c r="H9" t="n">
-        <v>3.416802406311035</v>
+        <v>3.061707496643066</v>
       </c>
       <c r="I9" t="n">
-        <v>5.530523300170898</v>
+        <v>5.256041765213013</v>
       </c>
       <c r="J9" t="n">
-        <v>8.280208826065063</v>
+        <v>8.077770948410034</v>
       </c>
       <c r="K9" t="n">
-        <v>4.009305334091186</v>
+        <v>3.682983684539795</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_CPU_GPU_NOC_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_CPU_GPU_NOC_25P_5K.xlsx
@@ -493,28 +493,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.156913377686387</v>
+        <v>2.107185467013224</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1847839014687198</v>
+        <v>0.1620980411135021</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6011264324188232</v>
+        <v>1.45785665512085</v>
       </c>
       <c r="G2" t="n">
-        <v>3.211828231811523</v>
+        <v>5.863635063171387</v>
       </c>
       <c r="H2" t="n">
-        <v>7.491635322570801</v>
+        <v>16.28912878036499</v>
       </c>
       <c r="I2" t="n">
-        <v>13.56940841674805</v>
+        <v>27.12942242622375</v>
       </c>
       <c r="J2" t="n">
-        <v>18.52843022346497</v>
+        <v>41.16143083572388</v>
       </c>
       <c r="K2" t="n">
-        <v>8.680485725402832</v>
+        <v>18.38029475212097</v>
       </c>
     </row>
     <row r="3">
@@ -532,28 +532,28 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>2.126926221628816</v>
+        <v>1.889030648255523</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2873901070489249</v>
+        <v>0.7084682470914924</v>
       </c>
       <c r="F3" t="n">
-        <v>1.689871072769165</v>
+        <v>5.251350164413452</v>
       </c>
       <c r="G3" t="n">
-        <v>10.24289655685425</v>
+        <v>17.44895052909851</v>
       </c>
       <c r="H3" t="n">
-        <v>22.11301279067993</v>
+        <v>42.46521902084351</v>
       </c>
       <c r="I3" t="n">
-        <v>36.33240461349487</v>
+        <v>73.11427688598633</v>
       </c>
       <c r="J3" t="n">
-        <v>51.99927067756653</v>
+        <v>103.7295606136322</v>
       </c>
       <c r="K3" t="n">
-        <v>24.47549114227295</v>
+        <v>48.4018714427948</v>
       </c>
     </row>
     <row r="4">
@@ -571,28 +571,28 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>2.279627053071717</v>
+        <v>1.983273684289795</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5157377877359423</v>
+        <v>0.9715119148289006</v>
       </c>
       <c r="F4" t="n">
-        <v>2.812599420547485</v>
+        <v>9.462812900543213</v>
       </c>
       <c r="G4" t="n">
-        <v>19.85046005249023</v>
+        <v>35.32260990142822</v>
       </c>
       <c r="H4" t="n">
-        <v>44.15005970001221</v>
+        <v>87.96919798851013</v>
       </c>
       <c r="I4" t="n">
-        <v>75.91563296318054</v>
+        <v>143.3388755321503</v>
       </c>
       <c r="J4" t="n">
-        <v>111.2514169216156</v>
+        <v>227.1837615966797</v>
       </c>
       <c r="K4" t="n">
-        <v>50.79603381156922</v>
+        <v>100.6554515838623</v>
       </c>
     </row>
     <row r="5">
@@ -610,28 +610,28 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>2.340483917379549</v>
+        <v>2.044270374103443</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7321020252733181</v>
+        <v>1.215031986619789</v>
       </c>
       <c r="F5" t="n">
-        <v>4.922509908676147</v>
+        <v>17.0302734375</v>
       </c>
       <c r="G5" t="n">
-        <v>30.63060545921326</v>
+        <v>60.51294994354248</v>
       </c>
       <c r="H5" t="n">
-        <v>77.89129734039307</v>
+        <v>164.2299304008484</v>
       </c>
       <c r="I5" t="n">
-        <v>134.3144249916077</v>
+        <v>295.8842942714691</v>
       </c>
       <c r="J5" t="n">
-        <v>213.2291617393494</v>
+        <v>422.5947728157043</v>
       </c>
       <c r="K5" t="n">
-        <v>92.1975998878479</v>
+        <v>192.0504441738129</v>
       </c>
     </row>
     <row r="6">
@@ -649,28 +649,28 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8697856167014354</v>
+        <v>1.124104640485596</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.7149511206434914</v>
+        <v>-0.6302615987001567</v>
       </c>
       <c r="F6" t="n">
-        <v>0.266096830368042</v>
+        <v>0.3005385398864746</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2147181034088135</v>
+        <v>0.3560199737548828</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4300105571746826</v>
+        <v>0.6880283355712891</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6828033924102783</v>
+        <v>1.165172815322876</v>
       </c>
       <c r="J6" t="n">
-        <v>1.020946979522705</v>
+        <v>1.788702487945557</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5229151725769043</v>
+        <v>0.8596924304962158</v>
       </c>
     </row>
     <row r="7">
@@ -688,28 +688,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.509884616862839</v>
+        <v>1.643305683672934</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.7372764461995537</v>
+        <v>-0.5468029394384972</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2033085823059082</v>
+        <v>0.3091890811920166</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4477417469024658</v>
+        <v>0.7884747982025146</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9023945331573486</v>
+        <v>1.621694326400757</v>
       </c>
       <c r="I7" t="n">
-        <v>1.511663198471069</v>
+        <v>2.803945541381836</v>
       </c>
       <c r="J7" t="n">
-        <v>2.285108089447021</v>
+        <v>4.344753265380859</v>
       </c>
       <c r="K7" t="n">
-        <v>1.070043230056763</v>
+        <v>1.973611402511597</v>
       </c>
     </row>
     <row r="8">
@@ -727,28 +727,28 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>1.621879754746254</v>
+        <v>1.745939664847587</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.5188536663906911</v>
+        <v>-0.3081767721680916</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3296384811401367</v>
+        <v>0.5236034393310547</v>
       </c>
       <c r="G8" t="n">
-        <v>0.823563814163208</v>
+        <v>1.507504224777222</v>
       </c>
       <c r="H8" t="n">
-        <v>1.707951784133911</v>
+        <v>3.216715574264526</v>
       </c>
       <c r="I8" t="n">
-        <v>2.907293081283569</v>
+        <v>5.592490196228027</v>
       </c>
       <c r="J8" t="n">
-        <v>4.448504686355591</v>
+        <v>8.648926973342896</v>
       </c>
       <c r="K8" t="n">
-        <v>2.043390369415283</v>
+        <v>3.897848081588745</v>
       </c>
     </row>
     <row r="9">
@@ -766,28 +766,28 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>1.670531440856786</v>
+        <v>1.7949032777701</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2901705309576364</v>
+        <v>-0.07885511411991929</v>
       </c>
       <c r="F9" t="n">
-        <v>0.552170991897583</v>
+        <v>0.8773677349090576</v>
       </c>
       <c r="G9" t="n">
-        <v>1.467227220535278</v>
+        <v>2.692853927612305</v>
       </c>
       <c r="H9" t="n">
-        <v>3.061707496643066</v>
+        <v>5.7890625</v>
       </c>
       <c r="I9" t="n">
-        <v>5.256041765213013</v>
+        <v>10.12357521057129</v>
       </c>
       <c r="J9" t="n">
-        <v>8.077770948410034</v>
+        <v>15.7150981426239</v>
       </c>
       <c r="K9" t="n">
-        <v>3.682983684539795</v>
+        <v>7.039591503143311</v>
       </c>
     </row>
   </sheetData>

--- a/result/atest_060_zernikemomentcalctime_CPU_GPU_NOC_25P_5K.xlsx
+++ b/result/atest_060_zernikemomentcalctime_CPU_GPU_NOC_25P_5K.xlsx
@@ -493,28 +493,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.107185467013224</v>
+        <v>1.893069601925544</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1620980411135021</v>
+        <v>0.2713589339922096</v>
       </c>
       <c r="F2" t="n">
-        <v>1.45785665512085</v>
+        <v>1.823444048563639</v>
       </c>
       <c r="G2" t="n">
-        <v>5.863635063171387</v>
+        <v>7.023851275444031</v>
       </c>
       <c r="H2" t="n">
-        <v>16.28912878036499</v>
+        <v>15.95527656873067</v>
       </c>
       <c r="I2" t="n">
-        <v>27.12942242622375</v>
+        <v>25.10761213302612</v>
       </c>
       <c r="J2" t="n">
-        <v>41.16143083572388</v>
+        <v>38.25181047121684</v>
       </c>
       <c r="K2" t="n">
-        <v>18.38029475212097</v>
+        <v>17.63239889939626</v>
       </c>
     </row>
     <row r="3">
@@ -532,28 +532,28 @@
         <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.889030648255523</v>
+        <v>2.038798870695613</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7084682470914924</v>
+        <v>0.6247679971446896</v>
       </c>
       <c r="F3" t="n">
-        <v>5.251350164413452</v>
+        <v>4.260394851366679</v>
       </c>
       <c r="G3" t="n">
-        <v>17.44895052909851</v>
+        <v>15.76889487107595</v>
       </c>
       <c r="H3" t="n">
-        <v>42.46521902084351</v>
+        <v>44.73907872041067</v>
       </c>
       <c r="I3" t="n">
-        <v>73.11427688598633</v>
+        <v>73.10130282243092</v>
       </c>
       <c r="J3" t="n">
-        <v>103.7295606136322</v>
+        <v>104.9564485549927</v>
       </c>
       <c r="K3" t="n">
-        <v>48.4018714427948</v>
+        <v>48.56522396405538</v>
       </c>
     </row>
     <row r="4">
@@ -571,28 +571,28 @@
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>1.983273684289795</v>
+        <v>1.918244035208082</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9715119148289006</v>
+        <v>1.032001688359549</v>
       </c>
       <c r="F4" t="n">
-        <v>9.462812900543213</v>
+        <v>9.696771581967672</v>
       </c>
       <c r="G4" t="n">
-        <v>35.32260990142822</v>
+        <v>47.63845948378245</v>
       </c>
       <c r="H4" t="n">
-        <v>87.96919798851013</v>
+        <v>93.19993321100871</v>
       </c>
       <c r="I4" t="n">
-        <v>143.3388755321503</v>
+        <v>152.0844309727351</v>
       </c>
       <c r="J4" t="n">
-        <v>227.1837615966797</v>
+        <v>214.9315557877223</v>
       </c>
       <c r="K4" t="n">
-        <v>100.6554515838623</v>
+        <v>103.5102302074432</v>
       </c>
     </row>
     <row r="5">
@@ -610,28 +610,28 @@
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>2.044270374103443</v>
+        <v>1.843675901195745</v>
       </c>
       <c r="E5" t="n">
-        <v>1.215031986619789</v>
+        <v>1.337311767680971</v>
       </c>
       <c r="F5" t="n">
-        <v>17.0302734375</v>
+        <v>21.26270922025045</v>
       </c>
       <c r="G5" t="n">
-        <v>60.51294994354248</v>
+        <v>78.64316594600677</v>
       </c>
       <c r="H5" t="n">
-        <v>164.2299304008484</v>
+        <v>175.4304756323496</v>
       </c>
       <c r="I5" t="n">
-        <v>295.8842942714691</v>
+        <v>276.2872604926427</v>
       </c>
       <c r="J5" t="n">
-        <v>422.5947728157043</v>
+        <v>408.4600685834885</v>
       </c>
       <c r="K5" t="n">
-        <v>192.0504441738129</v>
+        <v>192.0167359749476</v>
       </c>
     </row>
     <row r="6">
@@ -649,28 +649,28 @@
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>1.124104640485596</v>
+        <v>1.490786856265216</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.6302615987001567</v>
+        <v>-0.797908036476604</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3005385398864746</v>
+        <v>0.1769698063532511</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3560199737548828</v>
+        <v>0.3882664442062378</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6880283355712891</v>
+        <v>0.7540109157562256</v>
       </c>
       <c r="I6" t="n">
-        <v>1.165172815322876</v>
+        <v>1.273961941401164</v>
       </c>
       <c r="J6" t="n">
-        <v>1.788702487945557</v>
+        <v>1.952148199081421</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8596924304962158</v>
+        <v>0.9090714613596598</v>
       </c>
     </row>
     <row r="7">
@@ -688,28 +688,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>1.643305683672934</v>
+        <v>1.731331116802634</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5468029394384972</v>
+        <v>-0.5658898262976986</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3091890811920166</v>
+        <v>0.2887665033340454</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7884747982025146</v>
+        <v>0.8290454943974813</v>
       </c>
       <c r="H7" t="n">
-        <v>1.621694326400757</v>
+        <v>1.741426666577657</v>
       </c>
       <c r="I7" t="n">
-        <v>2.803945541381836</v>
+        <v>3.024470726648966</v>
       </c>
       <c r="J7" t="n">
-        <v>4.344753265380859</v>
+        <v>4.673285285631816</v>
       </c>
       <c r="K7" t="n">
-        <v>1.973611402511597</v>
+        <v>2.111398935317993</v>
       </c>
     </row>
     <row r="8">
@@ -727,28 +727,28 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>1.745939664847587</v>
+        <v>1.791985484086759</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3081767721680916</v>
+        <v>-0.3029524662835766</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5236034393310547</v>
+        <v>0.5221047004063925</v>
       </c>
       <c r="G8" t="n">
-        <v>1.507504224777222</v>
+        <v>1.611390312512716</v>
       </c>
       <c r="H8" t="n">
-        <v>3.216715574264526</v>
+        <v>3.451170285542806</v>
       </c>
       <c r="I8" t="n">
-        <v>5.592490196228027</v>
+        <v>6.012363036473592</v>
       </c>
       <c r="J8" t="n">
-        <v>8.648926973342896</v>
+        <v>9.313875555992126</v>
       </c>
       <c r="K8" t="n">
-        <v>3.897848081588745</v>
+        <v>4.182180778185526</v>
       </c>
     </row>
     <row r="9">
@@ -766,28 +766,28 @@
         <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>1.7949032777701</v>
+        <v>1.828404563304121</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07885511411991929</v>
+        <v>-0.06682635093538251</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8773677349090576</v>
+        <v>0.8927811781565348</v>
       </c>
       <c r="G9" t="n">
-        <v>2.692853927612305</v>
+        <v>2.878651340802511</v>
       </c>
       <c r="H9" t="n">
-        <v>5.7890625</v>
+        <v>6.205222805341085</v>
       </c>
       <c r="I9" t="n">
-        <v>10.12357521057129</v>
+        <v>10.88100755214691</v>
       </c>
       <c r="J9" t="n">
-        <v>15.7150981426239</v>
+        <v>16.90799431006114</v>
       </c>
       <c r="K9" t="n">
-        <v>7.039591503143311</v>
+        <v>7.553131437301635</v>
       </c>
     </row>
   </sheetData>
